--- a/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,59</t>
+          <t>5,99; 13,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -0,2</t>
+          <t>-8,38; -0,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 7,09</t>
+          <t>-2,62; 7,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,04</t>
+          <t>-4,82; 4,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,04; 53,32</t>
+          <t>18,33; 49,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,92; -0,54</t>
+          <t>-19,48; 0,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 15,98</t>
+          <t>-5,2; 16,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 20,71</t>
+          <t>-16,04; 18,93</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,58</t>
+          <t>5,21; 10,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,69</t>
+          <t>-0,92; 5,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,57</t>
+          <t>-2,77; 3,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,29</t>
+          <t>-0,26; 5,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,71; 79,97</t>
+          <t>33,58; 79,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 20,4</t>
+          <t>-2,93; 18,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 10,79</t>
+          <t>-7,77; 10,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 45,63</t>
+          <t>-2,31; 45,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,33</t>
+          <t>1,25; 8,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 7,1</t>
+          <t>-2,1; 7,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 7,01</t>
+          <t>-1,18; 6,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,68</t>
+          <t>0,49; 4,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,73; 172,58</t>
+          <t>12,65; 165,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 72,87</t>
+          <t>-14,47; 74,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 81,79</t>
+          <t>-9,64; 74,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 263,53</t>
+          <t>8,74; 251,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,97</t>
+          <t>7,73; 11,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,24</t>
+          <t>-1,43; 3,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,57</t>
+          <t>-0,13; 4,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,01</t>
+          <t>0,83; 5,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,09; 70,69</t>
+          <t>40,6; 68,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,99</t>
+          <t>-4,54; 10,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 14,06</t>
+          <t>-0,44; 14,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 41,26</t>
+          <t>6,31; 41,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 13,84</t>
+          <t>6,36; 14,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; -0,07</t>
+          <t>-8,5; -0,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,5</t>
+          <t>-2,27; 7,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,33; 49,74</t>
+          <t>19,78; 50,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 0,03</t>
+          <t>-19,71; -0,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 16,81</t>
+          <t>-4,59; 17,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,52</t>
+          <t>5,22; 10,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,33</t>
+          <t>-0,91; 5,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,29</t>
+          <t>-2,85; 3,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,58; 79,74</t>
+          <t>32,99; 80,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 18,88</t>
+          <t>-2,79; 19,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 10,07</t>
+          <t>-8,02; 9,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,98</t>
+          <t>1,61; 8,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 7,21</t>
+          <t>-2,59; 7,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,78</t>
+          <t>-0,64; 7,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 165,49</t>
+          <t>18,73; 169,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 74,06</t>
+          <t>-17,51; 70,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 74,69</t>
+          <t>-6,49; 87,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,82</t>
+          <t>7,8; 11,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,22</t>
+          <t>-1,19; 3,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,83</t>
+          <t>-0,09; 4,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,6; 68,52</t>
+          <t>41,63; 70,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 10,94</t>
+          <t>-3,83; 12,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 14,86</t>
+          <t>-0,18; 14,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,01</t>
+          <t>6,33; 14,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -0,29</t>
+          <t>-8,19; -0,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 7,83</t>
+          <t>-2,43; 7,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,5</t>
+          <t>-4,48; 5,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 50,58</t>
+          <t>20,04; 53,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,71; -0,77</t>
+          <t>-18,92; -0,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 17,53</t>
+          <t>-4,79; 15,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 18,93</t>
+          <t>-14,84; 20,71</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,85</t>
+          <t>4,93; 10,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,55</t>
+          <t>-0,6; 5,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,0</t>
+          <t>-2,59; 3,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,56</t>
+          <t>-0,52; 5,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,99; 80,82</t>
+          <t>31,71; 79,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 19,65</t>
+          <t>-1,9; 20,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 9,12</t>
+          <t>-7,24; 10,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 45,27</t>
+          <t>-3,39; 45,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 8,83</t>
+          <t>1,72; 9,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 7,22</t>
+          <t>-2,23; 7,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 7,71</t>
+          <t>-0,95; 7,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,61</t>
+          <t>0,4; 4,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 169,33</t>
+          <t>17,73; 172,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 70,69</t>
+          <t>-15,63; 72,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 87,25</t>
+          <t>-6,37; 81,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,74; 251,7</t>
+          <t>4,47; 263,53</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,99</t>
+          <t>7,74; 11,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,53</t>
+          <t>-1,24; 3,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,56</t>
+          <t>-0,05; 4,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,01</t>
+          <t>0,84; 5,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,63; 70,04</t>
+          <t>41,09; 70,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 12,14</t>
+          <t>-3,94; 10,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 14,25</t>
+          <t>-0,28; 14,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 41,57</t>
+          <t>6,12; 41,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,04</t>
+          <t>-3,97; 5,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 20,71</t>
+          <t>-13,07; 21,91</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>46,01%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,29</t>
+          <t>0,51; 14,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 45,63</t>
+          <t>3,46; 143,77</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>95,12%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,68</t>
+          <t>0,4; 4,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 263,53</t>
+          <t>2,6; 257,03</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>39,34%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,01</t>
+          <t>1,59; 10,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 41,26</t>
+          <t>11,85; 98,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,59</t>
+          <t>6,12; 14,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -0,2</t>
+          <t>-8,27; -0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 7,09</t>
+          <t>-2,41; 7,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 5,33</t>
+          <t>-3,78; 5,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,04; 53,32</t>
+          <t>19,02; 50,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,92; -0,54</t>
+          <t>-19,54; -0,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 15,98</t>
+          <t>-4,86; 15,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 21,91</t>
+          <t>-12,69; 21,01</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,58</t>
+          <t>5,11; 10,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,69</t>
+          <t>-0,89; 5,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,57</t>
+          <t>-2,92; 3,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 14,3</t>
+          <t>0,61; 14,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,71; 79,97</t>
+          <t>32,0; 81,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 20,4</t>
+          <t>-2,82; 19,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 10,79</t>
+          <t>-8,17; 9,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 143,77</t>
+          <t>4,85; 143,21</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,33</t>
+          <t>1,44; 9,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 7,1</t>
+          <t>-1,74; 7,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 7,01</t>
+          <t>-0,75; 7,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,6</t>
+          <t>0,37; 4,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,73; 172,58</t>
+          <t>11,72; 167,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 72,87</t>
+          <t>-13,01; 73,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 81,79</t>
+          <t>-4,92; 87,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 257,03</t>
+          <t>4,17; 252,59</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,97</t>
+          <t>7,84; 11,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,24</t>
+          <t>-1,23; 3,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,57</t>
+          <t>-0,07; 4,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,74</t>
+          <t>1,86; 11,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,09; 70,69</t>
+          <t>40,78; 69,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,99</t>
+          <t>-3,92; 10,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 14,06</t>
+          <t>-0,5; 14,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 98,95</t>
+          <t>12,85; 98,33</t>
         </is>
       </c>
     </row>
